--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_30_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_30_2.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_0</t>
+          <t>model_30_2_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999622605908347</v>
+        <v>0.9998858021297656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9991701891124956</v>
+        <v>0.9992155822822145</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999734242294305</v>
+        <v>0.9993485757971506</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999846425630488</v>
+        <v>0.9998294088637025</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999790621805007</v>
+        <v>0.9996432421476592</v>
       </c>
       <c r="G2" t="n">
-        <v>3.522808188714738e-05</v>
+        <v>0.0001065986991565944</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0007745920389972215</v>
+        <v>0.0007322195075944053</v>
       </c>
       <c r="I2" t="n">
-        <v>1.761659924366199e-05</v>
+        <v>0.0004848459151633974</v>
       </c>
       <c r="J2" t="n">
-        <v>8.869888151402094e-06</v>
+        <v>0.0001802514907205349</v>
       </c>
       <c r="K2" t="n">
-        <v>1.324292398898243e-05</v>
+        <v>0.0003325487029419661</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005048899488264958</v>
+        <v>0.000628115785851762</v>
       </c>
       <c r="M2" t="n">
-        <v>0.005935324918414103</v>
+        <v>0.01032466460262</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000036229832799</v>
+        <v>1.000109629955425</v>
       </c>
       <c r="O2" t="n">
-        <v>0.006188003988007359</v>
+        <v>0.01076420694975565</v>
       </c>
       <c r="P2" t="n">
-        <v>118.5073340250668</v>
+        <v>116.2928784986816</v>
       </c>
       <c r="Q2" t="n">
-        <v>178.2322494436086</v>
+        <v>176.0177939172235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_1</t>
+          <t>model_30_2_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999681379105517</v>
+        <v>0.9998875243994695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9991568834902482</v>
+        <v>0.9992155080143623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999703896498615</v>
+        <v>0.9993581415811874</v>
       </c>
       <c r="E3" t="n">
-        <v>0.999978986280746</v>
+        <v>0.9998324225448071</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999748862601457</v>
+        <v>0.9996487692184403</v>
       </c>
       <c r="G3" t="n">
-        <v>2.974186191587387e-05</v>
+        <v>0.000104991035986956</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0007870122533157483</v>
+        <v>0.0007322888333744918</v>
       </c>
       <c r="I3" t="n">
-        <v>1.962816733720063e-05</v>
+        <v>0.0004777262360122692</v>
       </c>
       <c r="J3" t="n">
-        <v>1.213674781923237e-05</v>
+        <v>0.0001770671487702831</v>
       </c>
       <c r="K3" t="n">
-        <v>1.588414438193669e-05</v>
+        <v>0.0003273966923912761</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000482542936309551</v>
+        <v>0.0006268409962340651</v>
       </c>
       <c r="M3" t="n">
-        <v>0.005453609989344111</v>
+        <v>0.01024651335757466</v>
       </c>
       <c r="N3" t="n">
-        <v>1.00003058760587</v>
+        <v>1.000107976576509</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005685781457119485</v>
+        <v>0.01068272864441335</v>
       </c>
       <c r="P3" t="n">
-        <v>118.8459100248805</v>
+        <v>116.3232711660078</v>
       </c>
       <c r="Q3" t="n">
-        <v>178.5708254434223</v>
+        <v>176.0481865845497</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_2</t>
+          <t>model_30_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999722880582631</v>
+        <v>0.9998894235142153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9991436979404129</v>
+        <v>0.9992153950460866</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999644017916799</v>
+        <v>0.9993687218361061</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999747430778476</v>
+        <v>0.9998357634503581</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999698137649208</v>
+        <v>0.9996548843618275</v>
       </c>
       <c r="G4" t="n">
-        <v>2.586788119775054e-05</v>
+        <v>0.000103218295733317</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0007993203853082403</v>
+        <v>0.0007323942843010761</v>
       </c>
       <c r="I4" t="n">
-        <v>2.359741058598133e-05</v>
+        <v>0.0004698515003847899</v>
       </c>
       <c r="J4" t="n">
-        <v>1.458746503409711e-05</v>
+        <v>0.0001735370520783023</v>
       </c>
       <c r="K4" t="n">
-        <v>1.909243781003922e-05</v>
+        <v>0.0003216965151186955</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004641758132301266</v>
+        <v>0.000625399550568199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005086047699122624</v>
+        <v>0.01015964053169781</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000026603464067</v>
+        <v>1.000106153426353</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005302571279244436</v>
+        <v>0.01059215746248739</v>
       </c>
       <c r="P4" t="n">
-        <v>119.1250169340484</v>
+        <v>116.3573288727845</v>
       </c>
       <c r="Q4" t="n">
-        <v>178.8499323525903</v>
+        <v>176.0822442913263</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_3</t>
+          <t>model_30_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999754747794247</v>
+        <v>0.9998915275342488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991312144361044</v>
+        <v>0.9992152218884295</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999579879683556</v>
+        <v>0.9993805140505242</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999722291716029</v>
+        <v>0.9998394427638825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999653055040604</v>
+        <v>0.9996616800982731</v>
       </c>
       <c r="G5" t="n">
-        <v>2.289321687428174e-05</v>
+        <v>0.0001012542853877695</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0008109731886176936</v>
+        <v>0.0007325559193732511</v>
       </c>
       <c r="I5" t="n">
-        <v>2.784901844917272e-05</v>
+        <v>0.000461074720267812</v>
       </c>
       <c r="J5" t="n">
-        <v>1.603940439640988e-05</v>
+        <v>0.0001696493838089981</v>
       </c>
       <c r="K5" t="n">
-        <v>2.194385965455344e-05</v>
+        <v>0.0003153619289962143</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004483570940742637</v>
+        <v>0.0006237373314433825</v>
       </c>
       <c r="M5" t="n">
-        <v>0.004784685660968936</v>
+        <v>0.01006251883912619</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000023544211752</v>
+        <v>1.000104133567121</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004988379635221126</v>
+        <v>0.01049090109839337</v>
       </c>
       <c r="P5" t="n">
-        <v>119.3693397952902</v>
+        <v>116.3957510561116</v>
       </c>
       <c r="Q5" t="n">
-        <v>179.094255213832</v>
+        <v>176.1206664746535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_4</t>
+          <t>model_30_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999781746842943</v>
+        <v>0.999893754927687</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9991197524650532</v>
+        <v>0.999215080639991</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999529344867241</v>
+        <v>0.9993929634805925</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999716754085612</v>
+        <v>0.9998434296603663</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999624044688752</v>
+        <v>0.9996689098823838</v>
       </c>
       <c r="G6" t="n">
-        <v>2.037297419068705e-05</v>
+        <v>9.917511138455049e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0008216724354716358</v>
+        <v>0.0007326877685904993</v>
       </c>
       <c r="I6" t="n">
-        <v>3.119888032639499e-05</v>
+        <v>0.0004518087837424171</v>
       </c>
       <c r="J6" t="n">
-        <v>1.635923746865079e-05</v>
+        <v>0.000165436714556993</v>
       </c>
       <c r="K6" t="n">
-        <v>2.377873020771309e-05</v>
+        <v>0.000308622749149705</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0004294604692338932</v>
+        <v>0.0006219641461297738</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004513643117337374</v>
+        <v>0.009958670161449796</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000020952303077</v>
+        <v>1.000101995269421</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004705798249371755</v>
+        <v>0.01038263136751189</v>
       </c>
       <c r="P6" t="n">
-        <v>119.6026026600088</v>
+        <v>116.4372469369067</v>
       </c>
       <c r="Q6" t="n">
-        <v>179.3275180785506</v>
+        <v>176.1621623554485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_5</t>
+          <t>model_30_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999805100731525</v>
+        <v>0.9998961659519271</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9991089153455393</v>
+        <v>0.9992148019782789</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999493360882331</v>
+        <v>0.9994064822680776</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999721568950469</v>
+        <v>0.999847779229896</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999607399847062</v>
+        <v>0.9996767722769579</v>
       </c>
       <c r="G7" t="n">
-        <v>1.819299120324806e-05</v>
+        <v>9.692452608812906e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0008317884108433923</v>
+        <v>0.0007329478870669154</v>
       </c>
       <c r="I7" t="n">
-        <v>3.358419381963212e-05</v>
+        <v>0.0004417469394611176</v>
       </c>
       <c r="J7" t="n">
-        <v>1.608114866467547e-05</v>
+        <v>0.0001608408345556558</v>
       </c>
       <c r="K7" t="n">
-        <v>2.483149682134051e-05</v>
+        <v>0.0003012938870083867</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0004106961040421228</v>
+        <v>0.0006200405972286474</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00426532427879148</v>
+        <v>0.00984502544883095</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000018710329774</v>
+        <v>1.00009968068615</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004446907963778102</v>
+        <v>0.01026414856419988</v>
       </c>
       <c r="P7" t="n">
-        <v>119.8289482735474</v>
+        <v>116.4831559277783</v>
       </c>
       <c r="Q7" t="n">
-        <v>179.5538636920893</v>
+        <v>176.2080713463201</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_6</t>
+          <t>model_30_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999826220024305</v>
+        <v>0.999898805699697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9990989819537492</v>
+        <v>0.9992145376190139</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999476779366783</v>
+        <v>0.999421331025507</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999735292436212</v>
+        <v>0.9998525793390866</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999604937108584</v>
+        <v>0.9996854209961269</v>
       </c>
       <c r="G8" t="n">
-        <v>1.622159792522038e-05</v>
+        <v>9.446043741637874e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0008410607960538411</v>
+        <v>0.0007331946548367479</v>
       </c>
       <c r="I8" t="n">
-        <v>3.468335259477394e-05</v>
+        <v>0.000430695217167991</v>
       </c>
       <c r="J8" t="n">
-        <v>1.528853083414905e-05</v>
+        <v>0.0001557689014176686</v>
       </c>
       <c r="K8" t="n">
-        <v>2.498726212666565e-05</v>
+        <v>0.0002932320592928298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003907681123311797</v>
+        <v>0.000617803394152442</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004027604489671296</v>
+        <v>0.009719075954862105</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000016682877667</v>
+        <v>1.000097146528291</v>
       </c>
       <c r="O8" t="n">
-        <v>0.00419906795108727</v>
+        <v>0.01013283713952138</v>
       </c>
       <c r="P8" t="n">
-        <v>120.0583339967889</v>
+        <v>116.5346589256044</v>
       </c>
       <c r="Q8" t="n">
-        <v>179.7832494153307</v>
+        <v>176.2595743441462</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_7</t>
+          <t>model_30_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999984460778067</v>
+        <v>0.9999015996522825</v>
       </c>
       <c r="C9" t="n">
-        <v>0.99908977512199</v>
+        <v>0.9992141986504709</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999471083291143</v>
+        <v>0.9994370689701104</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999751442277507</v>
+        <v>0.9998577572957578</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999609346782876</v>
+        <v>0.9996946369122214</v>
       </c>
       <c r="G9" t="n">
-        <v>1.450518158145617e-05</v>
+        <v>9.185240531818624e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0008496549693678822</v>
+        <v>0.0007335110670926697</v>
       </c>
       <c r="I9" t="n">
-        <v>3.506093518092327e-05</v>
+        <v>0.0004189816853086755</v>
       </c>
       <c r="J9" t="n">
-        <v>1.435577567193774e-05</v>
+        <v>0.0001502977237871466</v>
       </c>
       <c r="K9" t="n">
-        <v>2.470835542643051e-05</v>
+        <v>0.0002846415239379997</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003700075729849662</v>
+        <v>0.0006157489379192122</v>
       </c>
       <c r="M9" t="n">
-        <v>0.003808566867137318</v>
+        <v>0.00958396605368499</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000014917653056</v>
+        <v>1.000094464333809</v>
       </c>
       <c r="O9" t="n">
-        <v>0.003970705443491635</v>
+        <v>0.009991975330135103</v>
       </c>
       <c r="P9" t="n">
-        <v>120.2820092438539</v>
+        <v>116.5906551183724</v>
       </c>
       <c r="Q9" t="n">
-        <v>180.0069246623957</v>
+        <v>176.3155705369142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_8</t>
+          <t>model_30_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999859923297655</v>
+        <v>0.9999047185714597</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9990812167287285</v>
+        <v>0.9992136865986126</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999470384298538</v>
+        <v>0.9994548001518077</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999766032960298</v>
+        <v>0.9998635006655747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999615642307084</v>
+        <v>0.9997049729631835</v>
       </c>
       <c r="G10" t="n">
-        <v>1.307554529829256e-05</v>
+        <v>8.894103117109933e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0008576438538074375</v>
+        <v>0.0007339890450257989</v>
       </c>
       <c r="I10" t="n">
-        <v>3.510727014069978e-05</v>
+        <v>0.0004057846149828672</v>
       </c>
       <c r="J10" t="n">
-        <v>1.351307174403022e-05</v>
+        <v>0.0001442291143990955</v>
       </c>
       <c r="K10" t="n">
-        <v>2.4310170942365e-05</v>
+        <v>0.0002750068646909813</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003494923476354728</v>
+        <v>0.0006134906467024562</v>
       </c>
       <c r="M10" t="n">
-        <v>0.003616012347641053</v>
+        <v>0.009430855272513694</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000013447363425</v>
+        <v>1.000091470171399</v>
       </c>
       <c r="O10" t="n">
-        <v>0.003769953479457607</v>
+        <v>0.009832346306026335</v>
       </c>
       <c r="P10" t="n">
-        <v>120.4895336869372</v>
+        <v>116.6550739578812</v>
       </c>
       <c r="Q10" t="n">
-        <v>180.214449105479</v>
+        <v>176.3799893764231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_9</t>
+          <t>model_30_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999872436236081</v>
+        <v>0.9999080192277203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9990733615880341</v>
+        <v>0.9992130384810661</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999472265776795</v>
+        <v>0.9994736548391889</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999778078795205</v>
+        <v>0.9998696880453632</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9999622138498925</v>
+        <v>0.9997160072583665</v>
       </c>
       <c r="G11" t="n">
-        <v>1.190751742156645e-05</v>
+        <v>8.586001343375642e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0008649762828448807</v>
+        <v>0.0007345940343064164</v>
       </c>
       <c r="I11" t="n">
-        <v>3.498255033863394e-05</v>
+        <v>0.0003917513351039708</v>
       </c>
       <c r="J11" t="n">
-        <v>1.281734882712905e-05</v>
+        <v>0.0001376913513315647</v>
       </c>
       <c r="K11" t="n">
-        <v>2.389929446702453e-05</v>
+        <v>0.0002647213432177678</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003298280474636189</v>
+        <v>0.000610976115882009</v>
       </c>
       <c r="M11" t="n">
-        <v>0.003450727085929348</v>
+        <v>0.009266067851778144</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000012246121336</v>
+        <v>1.000088301541388</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003597631681967176</v>
+        <v>0.009660543543633085</v>
       </c>
       <c r="P11" t="n">
-        <v>120.6766812823948</v>
+        <v>116.7255846774134</v>
       </c>
       <c r="Q11" t="n">
-        <v>180.4015967009366</v>
+        <v>176.4505000959552</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_10</t>
+          <t>model_30_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999882498541575</v>
+        <v>0.9999116453780076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9990662804471451</v>
+        <v>0.9992121751214199</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9999475158053511</v>
+        <v>0.9994945189255499</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999787173458007</v>
+        <v>0.9998765148499481</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9999627791113254</v>
+        <v>0.9997282061850754</v>
       </c>
       <c r="G12" t="n">
-        <v>1.096824537223815e-05</v>
+        <v>8.247516131021073e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0008715862170385481</v>
+        <v>0.0007353999426391014</v>
       </c>
       <c r="I12" t="n">
-        <v>3.479082652890457e-05</v>
+        <v>0.0003762224876932075</v>
       </c>
       <c r="J12" t="n">
-        <v>1.229207470695984e-05</v>
+        <v>0.000130477953672172</v>
       </c>
       <c r="K12" t="n">
-        <v>2.354177327479065e-05</v>
+        <v>0.0002533502206826897</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003111820167551302</v>
+        <v>0.0006084172489904764</v>
       </c>
       <c r="M12" t="n">
-        <v>0.003311834140206624</v>
+        <v>0.009081583634488575</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000011280140009</v>
+        <v>1.000084820437113</v>
       </c>
       <c r="O12" t="n">
-        <v>0.003452825775997001</v>
+        <v>0.009468205451278524</v>
       </c>
       <c r="P12" t="n">
-        <v>120.8410124886125</v>
+        <v>116.8060267699671</v>
       </c>
       <c r="Q12" t="n">
-        <v>180.5659279071543</v>
+        <v>176.530942188509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_11</t>
+          <t>model_30_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999890301678939</v>
+        <v>0.9999154184338698</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9990597900019399</v>
+        <v>0.9992109967409698</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999476794366217</v>
+        <v>0.9995164434807058</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999792591709433</v>
+        <v>0.9998837183498691</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9999631145900291</v>
+        <v>0.9997410461686053</v>
       </c>
       <c r="G13" t="n">
-        <v>1.023985675114852e-05</v>
+        <v>7.895317928093003e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0008776447627400219</v>
+        <v>0.0007364999090643401</v>
       </c>
       <c r="I13" t="n">
-        <v>3.468235830930995e-05</v>
+        <v>0.0003599043482033904</v>
       </c>
       <c r="J13" t="n">
-        <v>1.197913652411017e-05</v>
+        <v>0.000122866528909116</v>
       </c>
       <c r="K13" t="n">
-        <v>2.332958694979275e-05</v>
+        <v>0.0002413815426546377</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0002938020735615847</v>
+        <v>0.0006089062226597745</v>
       </c>
       <c r="M13" t="n">
-        <v>0.003199977617288678</v>
+        <v>0.00888556015572063</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000010531038822</v>
+        <v>1.000081198303485</v>
       </c>
       <c r="O13" t="n">
-        <v>0.003336207289323514</v>
+        <v>0.009263836847194886</v>
       </c>
       <c r="P13" t="n">
-        <v>120.9784458551928</v>
+        <v>116.8933110970479</v>
       </c>
       <c r="Q13" t="n">
-        <v>180.7033612737347</v>
+        <v>176.6182265155898</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999896449143916</v>
+        <v>0.9999193513228973</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9990540013369793</v>
+        <v>0.9992096419458248</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999478668678057</v>
+        <v>0.9995395040494559</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999795496814633</v>
+        <v>0.9998913960529435</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9999633427175871</v>
+        <v>0.9997546000954891</v>
       </c>
       <c r="G14" t="n">
-        <v>9.666017879693222e-06</v>
+        <v>7.528200000756083e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0008830482273876922</v>
+        <v>0.0007377645508635038</v>
       </c>
       <c r="I14" t="n">
-        <v>3.455811355620818e-05</v>
+        <v>0.0003427406896980615</v>
       </c>
       <c r="J14" t="n">
-        <v>1.18113483816634e-05</v>
+        <v>0.0001147540474841344</v>
       </c>
       <c r="K14" t="n">
-        <v>2.31852989588132e-05</v>
+        <v>0.000228747368591098</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0002802322788682164</v>
+        <v>0.0006092142697104501</v>
       </c>
       <c r="M14" t="n">
-        <v>0.003109022013381897</v>
+        <v>0.008676520040175141</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000009940882184</v>
+        <v>1.000077422730019</v>
       </c>
       <c r="O14" t="n">
-        <v>0.003241379517054365</v>
+        <v>0.009045897461157932</v>
       </c>
       <c r="P14" t="n">
-        <v>121.0937882695842</v>
+        <v>116.9885389909165</v>
       </c>
       <c r="Q14" t="n">
-        <v>180.818703688126</v>
+        <v>176.7134544094583</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_13</t>
+          <t>model_30_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999901015018187</v>
+        <v>0.9999235172956782</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9990487080121931</v>
+        <v>0.9992079744632271</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999478889585057</v>
+        <v>0.9995642209943795</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999795249842044</v>
+        <v>0.9998996276722</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999963344990369</v>
+        <v>0.9997691334303647</v>
       </c>
       <c r="G15" t="n">
-        <v>9.239813558437233e-06</v>
+        <v>7.139324728172152e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0008879893137254406</v>
+        <v>0.0007393210726745164</v>
       </c>
       <c r="I15" t="n">
-        <v>3.454347002930678e-05</v>
+        <v>0.0003243442135936745</v>
       </c>
       <c r="J15" t="n">
-        <v>1.18256126058672e-05</v>
+        <v>0.0001060562823234697</v>
       </c>
       <c r="K15" t="n">
-        <v>2.31838614510783e-05</v>
+        <v>0.0002152002479585721</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0002691653125357014</v>
+        <v>0.0006090273374019322</v>
       </c>
       <c r="M15" t="n">
-        <v>0.003039706163173874</v>
+        <v>0.008449452484138928</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000009502558254</v>
+        <v>1.000073423396149</v>
       </c>
       <c r="O15" t="n">
-        <v>0.003169112747599396</v>
+        <v>0.008809163169166618</v>
       </c>
       <c r="P15" t="n">
-        <v>121.1839777003451</v>
+        <v>117.0946145379551</v>
       </c>
       <c r="Q15" t="n">
-        <v>180.9088931188869</v>
+        <v>176.819529956497</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_14</t>
+          <t>model_30_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999904279710463</v>
+        <v>0.9999279508255102</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9990438938219777</v>
+        <v>0.9992059175095817</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999477737480498</v>
+        <v>0.9995908313445283</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999792431919141</v>
+        <v>0.9999084932935468</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9999631548813056</v>
+        <v>0.9997847780675528</v>
       </c>
       <c r="G16" t="n">
-        <v>8.935068864757775e-06</v>
+        <v>6.725474179299524e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0008924831489730907</v>
+        <v>0.0007412411486127047</v>
       </c>
       <c r="I16" t="n">
-        <v>3.461984096374434e-05</v>
+        <v>0.0003045385024851572</v>
       </c>
       <c r="J16" t="n">
-        <v>1.198836542100842e-05</v>
+        <v>9.668861235765237e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>2.330410319237638e-05</v>
+        <v>0.0002006172366224272</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0002589438565629415</v>
+        <v>0.0006076395132619014</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002989158554636702</v>
+        <v>0.008200898840553713</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000009189147796</v>
+        <v>1.00006916720751</v>
       </c>
       <c r="O16" t="n">
-        <v>0.003116413222718822</v>
+        <v>0.008550028082397007</v>
       </c>
       <c r="P16" t="n">
-        <v>121.2510534041579</v>
+        <v>117.21404606407</v>
       </c>
       <c r="Q16" t="n">
-        <v>180.9759688226998</v>
+        <v>176.9389614826119</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_15</t>
+          <t>model_30_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.999990650561383</v>
+        <v>0.9999323744989834</v>
       </c>
       <c r="C17" t="n">
-        <v>0.999039509166018</v>
+        <v>0.9992030899608439</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999475390133834</v>
+        <v>0.9996180753419184</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999787569959296</v>
+        <v>0.9999174887139486</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999962810002901</v>
+        <v>0.9998007571395686</v>
       </c>
       <c r="G17" t="n">
-        <v>8.727290556048754e-06</v>
+        <v>6.312543678255215e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0008965760328472208</v>
+        <v>0.0007438805412442581</v>
       </c>
       <c r="I17" t="n">
-        <v>3.477544234265479e-05</v>
+        <v>0.000284261176605135</v>
       </c>
       <c r="J17" t="n">
-        <v>1.226917425747539e-05</v>
+        <v>8.718379298499772e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>2.352223471742273e-05</v>
+        <v>0.0001857224847950663</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0002495105403752083</v>
+        <v>0.000606734565526585</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002954198801037052</v>
+        <v>0.007945151778446536</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000008975461072</v>
+        <v>1.000064920480976</v>
       </c>
       <c r="O17" t="n">
-        <v>0.003079965160031768</v>
+        <v>0.008283393338386524</v>
       </c>
       <c r="P17" t="n">
-        <v>121.2981111928326</v>
+        <v>117.3407735021303</v>
       </c>
       <c r="Q17" t="n">
-        <v>181.0230266113744</v>
+        <v>177.0656889206721</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_16</t>
+          <t>model_30_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999907971725962</v>
+        <v>0.9999367958654202</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9990355644201514</v>
+        <v>0.9991999989111137</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999472560066265</v>
+        <v>0.9996456798041765</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999781345438298</v>
+        <v>0.999926813733127</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9999623753283332</v>
+        <v>0.9998170665774955</v>
       </c>
       <c r="G18" t="n">
-        <v>8.590435424001821e-06</v>
+        <v>5.899828528936955e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0009002582799594384</v>
+        <v>0.0007467659004861578</v>
       </c>
       <c r="I18" t="n">
-        <v>3.496304242021666e-05</v>
+        <v>0.0002637155617698407</v>
       </c>
       <c r="J18" t="n">
-        <v>1.262867959180546e-05</v>
+        <v>7.73307100851991e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>2.379716125699176e-05</v>
+        <v>0.0001705197852814585</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0002410453654765463</v>
+        <v>0.0006069965949203784</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002930944459385374</v>
+        <v>0.007681034128902797</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000008834714308</v>
+        <v>1.000060675969197</v>
       </c>
       <c r="O18" t="n">
-        <v>0.003055720832912855</v>
+        <v>0.008008031653702802</v>
       </c>
       <c r="P18" t="n">
-        <v>121.3297222672269</v>
+        <v>117.4760043547459</v>
       </c>
       <c r="Q18" t="n">
-        <v>181.0546376857687</v>
+        <v>177.2009197732877</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_17</t>
+          <t>model_30_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999908825131122</v>
+        <v>0.9999413468038079</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9990319991238912</v>
+        <v>0.9991959636344911</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999469074592909</v>
+        <v>0.9996749683740933</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999774135240456</v>
+        <v>0.9999363570655416</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9999618648262121</v>
+        <v>0.999834164914763</v>
       </c>
       <c r="G19" t="n">
-        <v>8.510773798364822e-06</v>
+        <v>5.475018406761682e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0009035863275199732</v>
+        <v>0.0007505326540850263</v>
       </c>
       <c r="I19" t="n">
-        <v>3.51940881658847e-05</v>
+        <v>0.0002419164891793069</v>
       </c>
       <c r="J19" t="n">
-        <v>1.304511397871168e-05</v>
+        <v>6.724695115428183e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>2.412004783007049e-05</v>
+        <v>0.0001545817201667944</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0002355400565480104</v>
+        <v>0.0006058170328005303</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00291732305347982</v>
+        <v>0.0073993367316008</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000008752787412</v>
+        <v>1.000056307068344</v>
       </c>
       <c r="O19" t="n">
-        <v>0.003041519535557704</v>
+        <v>0.007714341815003658</v>
       </c>
       <c r="P19" t="n">
-        <v>121.3483553827704</v>
+        <v>117.6254596546154</v>
       </c>
       <c r="Q19" t="n">
-        <v>181.0732708013123</v>
+        <v>177.3503750731572</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_18</t>
+          <t>model_30_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999909158670146</v>
+        <v>0.9999460450343235</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9990287517968731</v>
+        <v>0.9991909126329679</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999464994844537</v>
+        <v>0.9997060832112992</v>
       </c>
       <c r="E20" t="n">
-        <v>0.99997660852203</v>
+        <v>0.9999460413905044</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9999612838007523</v>
+        <v>0.9998520758666837</v>
       </c>
       <c r="G20" t="n">
-        <v>8.479639394540491e-06</v>
+        <v>5.036459210973895e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0009066175647501121</v>
+        <v>0.0007552475422937247</v>
       </c>
       <c r="I20" t="n">
-        <v>3.546452733112359e-05</v>
+        <v>0.0002187581514106855</v>
       </c>
       <c r="J20" t="n">
-        <v>1.351005339945432e-05</v>
+        <v>5.701421545038958e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>2.448753958339774e-05</v>
+        <v>0.0001378861834305375</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0002304793456597137</v>
+        <v>0.0006014410272122276</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002911982038842357</v>
+        <v>0.007096801540816746</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000008720767666</v>
+        <v>1.000051796767049</v>
       </c>
       <c r="O20" t="n">
-        <v>0.0030359511428697</v>
+        <v>0.007398927074813746</v>
       </c>
       <c r="P20" t="n">
-        <v>121.3556852665867</v>
+        <v>117.7924443345745</v>
       </c>
       <c r="Q20" t="n">
-        <v>181.0806006851286</v>
+        <v>177.5173597531163</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_19</t>
+          <t>model_30_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999909124079248</v>
+        <v>0.9999506281450994</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9990258097761909</v>
+        <v>0.9991863819508725</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999460621351706</v>
+        <v>0.99973495209348</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999757674387034</v>
+        <v>0.9999559109811018</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9999606721201497</v>
+        <v>0.9998691951596518</v>
       </c>
       <c r="G21" t="n">
-        <v>8.482868302990042e-06</v>
+        <v>4.60864593758053e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0009093638119171658</v>
+        <v>0.0007594767351557761</v>
       </c>
       <c r="I21" t="n">
-        <v>3.575443828709063e-05</v>
+        <v>0.0001972714465271153</v>
       </c>
       <c r="J21" t="n">
-        <v>1.399583205218863e-05</v>
+        <v>4.65857227596365e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>2.487442035321131e-05</v>
+        <v>0.0001219285846433759</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0002258276599117681</v>
+        <v>0.0005880847759007707</v>
       </c>
       <c r="M21" t="n">
-        <v>0.002912536403719281</v>
+        <v>0.006788700860680584</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000008724088392</v>
+        <v>1.000047396980705</v>
       </c>
       <c r="O21" t="n">
-        <v>0.003036529108207128</v>
+        <v>0.007077709910867856</v>
       </c>
       <c r="P21" t="n">
-        <v>121.3549238441494</v>
+        <v>117.9699827479485</v>
       </c>
       <c r="Q21" t="n">
-        <v>181.0798392626912</v>
+        <v>177.6948981664903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_20</t>
+          <t>model_30_2_1</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999908773719218</v>
+        <v>0.9999640593107416</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9990231351382676</v>
+        <v>0.9991819568023446</v>
       </c>
       <c r="D22" t="n">
-        <v>0.99994559239326</v>
+        <v>0.9998348883457653</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999974894700194</v>
+        <v>0.9999825404646437</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999960024906151</v>
+        <v>0.999924186091829</v>
       </c>
       <c r="G22" t="n">
-        <v>8.515572873867482e-06</v>
+        <v>3.354905580878713e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0009118604690155649</v>
+        <v>0.0007636074170650123</v>
       </c>
       <c r="I22" t="n">
-        <v>3.606582173178261e-05</v>
+        <v>0.0001228902929172943</v>
       </c>
       <c r="J22" t="n">
-        <v>1.449989356903132e-05</v>
+        <v>1.844824616073892e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>2.528377557715385e-05</v>
+        <v>7.066926953901661e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002215630007737586</v>
+        <v>0.0005577189059106345</v>
       </c>
       <c r="M22" t="n">
-        <v>0.002918145451115739</v>
+        <v>0.0057921546775606</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000008757722955</v>
+        <v>1.000034503061688</v>
       </c>
       <c r="O22" t="n">
-        <v>0.003042376944363582</v>
+        <v>0.006038738693597466</v>
       </c>
       <c r="P22" t="n">
-        <v>121.3472279358267</v>
+        <v>118.6050036755015</v>
       </c>
       <c r="Q22" t="n">
-        <v>181.0721433543685</v>
+        <v>178.3299190940433</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_21</t>
+          <t>model_30_2_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999908225730498</v>
+        <v>0.9999549916888935</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9990207094566382</v>
+        <v>0.9991803040811595</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999451099703723</v>
+        <v>0.9997648993297821</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999740185282485</v>
+        <v>0.9999642790544758</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9999593777886441</v>
+        <v>0.9998858939464286</v>
       </c>
       <c r="G23" t="n">
-        <v>8.566725215518328e-06</v>
+        <v>4.201328278145985e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0009141247363414152</v>
+        <v>0.0007651501597451215</v>
       </c>
       <c r="I23" t="n">
-        <v>3.638561116762547e-05</v>
+        <v>0.0001749821377664005</v>
       </c>
       <c r="J23" t="n">
-        <v>1.500593811166546e-05</v>
+        <v>3.774377626196198e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>2.569306977116818e-05</v>
+        <v>0.0001063629570141812</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0002176549111660127</v>
+        <v>0.000577905230009324</v>
       </c>
       <c r="M23" t="n">
-        <v>0.002926896857683634</v>
+        <v>0.00648176540623462</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000008810329872</v>
+        <v>1.000043207978662</v>
       </c>
       <c r="O23" t="n">
-        <v>0.003051500916426981</v>
+        <v>0.006757707578682145</v>
       </c>
       <c r="P23" t="n">
-        <v>121.3352500405165</v>
+        <v>118.1550494659562</v>
       </c>
       <c r="Q23" t="n">
-        <v>181.0601654590583</v>
+        <v>177.879964884498</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_22</t>
+          <t>model_30_2_0</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999907528797783</v>
+        <v>0.9999647141514889</v>
       </c>
       <c r="C24" t="n">
-        <v>0.999018518682385</v>
+        <v>0.9991801440888387</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999446311950491</v>
+        <v>0.9998566185784571</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999731693031935</v>
+        <v>0.9999856306298913</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9999587367063606</v>
+        <v>0.9999346129533665</v>
       </c>
       <c r="G24" t="n">
-        <v>8.631780825257492e-06</v>
+        <v>3.293779071537396e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0009161697279429536</v>
+        <v>0.0007652995055537825</v>
       </c>
       <c r="I24" t="n">
-        <v>3.670298269884195e-05</v>
+        <v>0.0001067167849172903</v>
       </c>
       <c r="J24" t="n">
-        <v>1.549641912600206e-05</v>
+        <v>1.518308886980715e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>2.60985467574509e-05</v>
+        <v>6.094996201062589e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0002141076673797303</v>
+        <v>0.0005704697083375326</v>
       </c>
       <c r="M24" t="n">
-        <v>0.002937989248662679</v>
+        <v>0.005739145469089798</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000008877235413</v>
+        <v>1.000033874414571</v>
       </c>
       <c r="O24" t="n">
-        <v>0.003063065533454419</v>
+        <v>0.005983472773377874</v>
       </c>
       <c r="P24" t="n">
-        <v>121.320119442576</v>
+        <v>118.6417798108569</v>
       </c>
       <c r="Q24" t="n">
-        <v>181.0450348611178</v>
+        <v>178.3666952293987</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_23</t>
+          <t>model_30_2_2</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999906755024769</v>
+        <v>0.9999628402321342</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9990165479913319</v>
+        <v>0.9991786534397771</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999441757950893</v>
+        <v>0.9998175489617455</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999723447470777</v>
+        <v>0.9999781363162995</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9999581197637304</v>
+        <v>0.9999147674491407</v>
       </c>
       <c r="G25" t="n">
-        <v>8.704009139635719e-06</v>
+        <v>3.468701217737945e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0009180092815376619</v>
+        <v>0.0007666909610209288</v>
       </c>
       <c r="I25" t="n">
-        <v>3.700485912289438e-05</v>
+        <v>0.0001357957537163827</v>
       </c>
       <c r="J25" t="n">
-        <v>1.597265227247893e-05</v>
+        <v>2.310179570395633e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.648875569768665e-05</v>
+        <v>7.94487747101695e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002108399727338581</v>
+        <v>0.0005524603410412244</v>
       </c>
       <c r="M25" t="n">
-        <v>0.00295025577529063</v>
+        <v>0.00588956808071521</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000008951517622</v>
+        <v>1.000035673377151</v>
       </c>
       <c r="O25" t="n">
-        <v>0.003075854271516133</v>
+        <v>0.006140299186997913</v>
       </c>
       <c r="P25" t="n">
-        <v>121.3034536356024</v>
+        <v>118.5382904598227</v>
       </c>
       <c r="Q25" t="n">
-        <v>181.0283690541442</v>
+        <v>178.2632058783645</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_30_2_24</t>
+          <t>model_30_2_3</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999905907295369</v>
+        <v>0.999958944816002</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9990147578380206</v>
+        <v>0.9991735606623796</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999437203667633</v>
+        <v>0.9997945704667638</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999715471839244</v>
+        <v>0.9999709600483068</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9999575170358421</v>
+        <v>0.9999015263102948</v>
       </c>
       <c r="G26" t="n">
-        <v>8.783140958060725e-06</v>
+        <v>3.832321214782787e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000919680311075067</v>
+        <v>0.0007714448451743175</v>
       </c>
       <c r="I26" t="n">
-        <v>3.730675435047074e-05</v>
+        <v>0.0001528983258648395</v>
       </c>
       <c r="J26" t="n">
-        <v>1.643329528116464e-05</v>
+        <v>3.068444643006106e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>2.686997398124073e-05</v>
+        <v>9.179138614745031e-05</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002078821557688462</v>
+        <v>0.0005701054632381329</v>
       </c>
       <c r="M26" t="n">
-        <v>0.002963636441613702</v>
+        <v>0.006190574460244208</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000009032899644</v>
+        <v>1.000039412976638</v>
       </c>
       <c r="O26" t="n">
-        <v>0.003089804580506375</v>
+        <v>0.006454120031272564</v>
       </c>
       <c r="P26" t="n">
-        <v>121.2853529483859</v>
+        <v>118.3389095681153</v>
       </c>
       <c r="Q26" t="n">
-        <v>181.0102683669277</v>
+        <v>178.0638249866572</v>
       </c>
     </row>
   </sheetData>
